--- a/Time-Logs/Time Log-Russell Pesek.xlsx
+++ b/Time-Logs/Time Log-Russell Pesek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pesek\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB0CDC2A-E54E-46CE-95BC-6231BCCC9B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782D739-2F58-411D-A7F0-4BEF574F6C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Found research papers related to project, read and analyzed them, added them to project proposal. Updated proposal with minor corrections.</t>
+  </si>
+  <si>
+    <t>Worked on Project proposal</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A313E4-319D-4EE9-A866-657DD8B8686E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Time-Logs/Time Log-Russell Pesek.xlsx
+++ b/Time-Logs/Time Log-Russell Pesek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pesek\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pesek\OneDrive\Documents\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782D739-2F58-411D-A7F0-4BEF574F6C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED20D9-31DD-476F-9B64-D6C1CAC23A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
+    <workbookView xWindow="4620" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Worked on Project proposal</t>
+  </si>
+  <si>
+    <t>Worked on Overleaf Project Report</t>
+  </si>
+  <si>
+    <t>Worked on creating tasks and edited proposal for clearer reading</t>
+  </si>
+  <si>
+    <t>Searched for Research papers related to project</t>
+  </si>
+  <si>
+    <t>Worked on overleaf project report, planning section, updated project report with workflow</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A313E4-319D-4EE9-A866-657DD8B8686E}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +511,76 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Time-Logs/Time Log-Russell Pesek.xlsx
+++ b/Time-Logs/Time Log-Russell Pesek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pesek\OneDrive\Documents\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED20D9-31DD-476F-9B64-D6C1CAC23A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3AD654-0784-4664-B308-4CA59A30EB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
+    <workbookView xWindow="2910" yWindow="2370" windowWidth="21600" windowHeight="12645" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Worked on overleaf project report, planning section, updated project report with workflow</t>
+  </si>
+  <si>
+    <t>Worked on creating and updating tasks for study</t>
+  </si>
+  <si>
+    <t>Worked on writing center feedback on report</t>
+  </si>
+  <si>
+    <t>Finished tasks and questionaires</t>
+  </si>
+  <si>
+    <t>Conducted study on participants</t>
+  </si>
+  <si>
+    <t>practiced lab setup and started pilot study</t>
+  </si>
+  <si>
+    <t>conducted pilot study</t>
   </si>
 </sst>
 </file>
@@ -445,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A313E4-319D-4EE9-A866-657DD8B8686E}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,6 +599,104 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B13" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.54861111111111116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Time-Logs/Time Log-Russell Pesek.xlsx
+++ b/Time-Logs/Time Log-Russell Pesek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pesek\OneDrive\Documents\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3AD654-0784-4664-B308-4CA59A30EB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F17553-0F66-41B7-87A9-A55C5FF6AC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2370" windowWidth="21600" windowHeight="12645" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12645" xr2:uid="{F2173EE4-C147-4CED-96AD-196F2B72CD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>conducted pilot study</t>
+  </si>
+  <si>
+    <t>Wrote report, data analysis</t>
+  </si>
+  <si>
+    <t>Created presentation, worked on report</t>
+  </si>
+  <si>
+    <t>worked on report and presetation</t>
+  </si>
+  <si>
+    <t>Worked on report and analysis</t>
+  </si>
+  <si>
+    <t>Finished report</t>
+  </si>
+  <si>
+    <t>Practiced presentation</t>
   </si>
 </sst>
 </file>
@@ -463,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A313E4-319D-4EE9-A866-657DD8B8686E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +715,160 @@
         <v>15</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
